--- a/Assets/06.Table/DimensionSeason.xlsx
+++ b/Assets/06.Table/DimensionSeason.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E66C71F-833A-42D1-8A4B-EA8D52013128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D195DB-A855-401B-9EFF-8F271987F033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DimensionSeason" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,27 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={6E97B01F-AE9B-4BBB-B819-EE4E5F9223D1}</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{6E97B01F-AE9B-4BBB-B819-EE4E5F9223D1}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    매달 말일을 잘 넣을 것
+말일이 30일인지 31일인지 확인 필요</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>id</t>
   </si>
@@ -41,11 +60,30 @@
     <t>EndDate</t>
   </si>
   <si>
-    <t>2024-06-01</t>
+    <t>dimensionpass0</t>
+  </si>
+  <si>
+    <t>dimensionpass1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>productId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-05-31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-06-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-07-31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dimensionpass2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -213,6 +251,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="성훈 권" id="{EC1E12D5-AA73-45DB-8997-73F570AB789D}" userId="99838191fb953e30" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -510,14 +554,23 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B1" dT="2024-05-16T02:11:07.38" personId="{EC1E12D5-AA73-45DB-8997-73F570AB789D}" id="{6E97B01F-AE9B-4BBB-B819-EE4E5F9223D1}">
+    <text>매달 말일을 잘 넣을 것
+말일이 30일인지 31일인지 확인 필요</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -541,12 +594,18 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="5"/>
@@ -556,13 +615,28 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Assets/06.Table/DimensionSeason.xlsx
+++ b/Assets/06.Table/DimensionSeason.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D195DB-A855-401B-9EFF-8F271987F033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B4B740-0DC9-48B6-82F3-D0D38D40E0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DimensionSeason" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -84,6 +84,20 @@
   </si>
   <si>
     <t>dimensionpass2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dimensionpass3</t>
+  </si>
+  <si>
+    <t>dimensionpass4</t>
+  </si>
+  <si>
+    <t>2024-08-31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-09-30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,12 +579,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -633,6 +647,28 @@
         <v>8</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/DimensionSeason.xlsx
+++ b/Assets/06.Table/DimensionSeason.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B4B740-0DC9-48B6-82F3-D0D38D40E0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD46DD2-9779-4344-B9BE-35CA7C8017CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DimensionSeason" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -98,6 +98,22 @@
   </si>
   <si>
     <t>2024-09-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-10-31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dimensionpass5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dimensionpass6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -579,12 +595,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -669,6 +685,28 @@
         <v>10</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/DimensionSeason.xlsx
+++ b/Assets/06.Table/DimensionSeason.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD46DD2-9779-4344-B9BE-35CA7C8017CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30515AC5-0075-45E5-988D-B5D70491F455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DimensionSeason" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -114,6 +114,14 @@
   </si>
   <si>
     <t>dimensionpass6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dimensionpass7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -595,12 +603,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -707,6 +715,17 @@
         <v>16</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/DimensionSeason.xlsx
+++ b/Assets/06.Table/DimensionSeason.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30515AC5-0075-45E5-988D-B5D70491F455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBE2EA3-9B52-41DE-8228-E4710188B928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -122,6 +122,22 @@
   </si>
   <si>
     <t>dimensionpass7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dimensionpass8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dimensionpass9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-01-31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-02-28</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -603,12 +619,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -726,6 +742,28 @@
         <v>18</v>
       </c>
     </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/DimensionSeason.xlsx
+++ b/Assets/06.Table/DimensionSeason.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBE2EA3-9B52-41DE-8228-E4710188B928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B002EB-3602-4F6C-AF58-B3235BB41EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DimensionSeason" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>id</t>
   </si>
@@ -139,6 +139,144 @@
   <si>
     <t>2025-02-28</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dimensionpass10</t>
+  </si>
+  <si>
+    <t>dimensionpass11</t>
+  </si>
+  <si>
+    <t>dimensionpass12</t>
+  </si>
+  <si>
+    <t>dimensionpass13</t>
+  </si>
+  <si>
+    <t>dimensionpass14</t>
+  </si>
+  <si>
+    <t>dimensionpass15</t>
+  </si>
+  <si>
+    <t>dimensionpass16</t>
+  </si>
+  <si>
+    <t>dimensionpass17</t>
+  </si>
+  <si>
+    <t>dimensionpass18</t>
+  </si>
+  <si>
+    <t>dimensionpass19</t>
+  </si>
+  <si>
+    <t>dimensionpass20</t>
+  </si>
+  <si>
+    <t>dimensionpass21</t>
+  </si>
+  <si>
+    <t>dimensionpass22</t>
+  </si>
+  <si>
+    <t>dimensionpass23</t>
+  </si>
+  <si>
+    <t>dimensionpass24</t>
+  </si>
+  <si>
+    <t>dimensionpass25</t>
+  </si>
+  <si>
+    <t>dimensionpass26</t>
+  </si>
+  <si>
+    <t>dimensionpass27</t>
+  </si>
+  <si>
+    <t>dimensionpass28</t>
+  </si>
+  <si>
+    <t>dimensionpass29</t>
+  </si>
+  <si>
+    <t>dimensionpass30</t>
+  </si>
+  <si>
+    <t>dimensionpass31</t>
+  </si>
+  <si>
+    <t>dimensionpass32</t>
+  </si>
+  <si>
+    <t>dimensionpass33</t>
+  </si>
+  <si>
+    <t>dimensionpass34</t>
+  </si>
+  <si>
+    <t>dimensionpass35</t>
+  </si>
+  <si>
+    <t>dimensionpass36</t>
+  </si>
+  <si>
+    <t>dimensionpass37</t>
+  </si>
+  <si>
+    <t>dimensionpass38</t>
+  </si>
+  <si>
+    <t>dimensionpass39</t>
+  </si>
+  <si>
+    <t>dimensionpass40</t>
+  </si>
+  <si>
+    <t>dimensionpass41</t>
+  </si>
+  <si>
+    <t>dimensionpass42</t>
+  </si>
+  <si>
+    <t>dimensionpass43</t>
+  </si>
+  <si>
+    <t>dimensionpass44</t>
+  </si>
+  <si>
+    <t>dimensionpass45</t>
+  </si>
+  <si>
+    <t>dimensionpass46</t>
+  </si>
+  <si>
+    <t>dimensionpass47</t>
+  </si>
+  <si>
+    <t>dimensionpass48</t>
+  </si>
+  <si>
+    <t>dimensionpass49</t>
+  </si>
+  <si>
+    <t>dimensionpass50</t>
+  </si>
+  <si>
+    <t>dimensionpass51</t>
+  </si>
+  <si>
+    <t>dimensionpass52</t>
+  </si>
+  <si>
+    <t>dimensionpass53</t>
+  </si>
+  <si>
+    <t>dimensionpass54</t>
+  </si>
+  <si>
+    <t>dimensionpass55</t>
   </si>
 </sst>
 </file>
@@ -263,7 +401,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -286,6 +424,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -619,12 +760,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -764,6 +905,558 @@
         <v>20</v>
       </c>
     </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="str">
+        <f>TEXT(EOMONTH(B11, 1),"yyyy-mm-dd")</f>
+        <v>2025-03-31</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8" t="str">
+        <f t="shared" ref="B13:B57" si="0">TEXT(EOMONTH(B12, 1),"yyyy-mm-dd")</f>
+        <v>2025-04-30</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2025-05-31</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2025-06-30</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2025-07-31</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2025-08-31</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2025-09-30</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2025-10-31</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2025-11-30</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2025-12-31</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2026-01-31</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2026-02-28</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2026-03-31</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2026-04-30</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2026-05-31</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2026-06-30</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2026-07-31</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2026-08-31</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2026-09-30</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2026-10-31</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2026-11-30</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2026-12-31</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2027-01-31</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>33</v>
+      </c>
+      <c r="B35" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2027-02-28</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2027-03-31</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+      <c r="B37" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2027-04-30</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2027-05-31</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>37</v>
+      </c>
+      <c r="B39" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2027-06-30</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>38</v>
+      </c>
+      <c r="B40" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2027-07-31</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>39</v>
+      </c>
+      <c r="B41" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2027-08-31</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2027-09-30</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>41</v>
+      </c>
+      <c r="B43" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2027-10-31</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>42</v>
+      </c>
+      <c r="B44" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2027-11-30</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>43</v>
+      </c>
+      <c r="B45" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2027-12-31</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>44</v>
+      </c>
+      <c r="B46" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2028-01-31</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>45</v>
+      </c>
+      <c r="B47" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2028-02-29</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>46</v>
+      </c>
+      <c r="B48" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2028-03-31</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>47</v>
+      </c>
+      <c r="B49" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2028-04-30</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>48</v>
+      </c>
+      <c r="B50" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2028-05-31</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>49</v>
+      </c>
+      <c r="B51" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2028-06-30</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>50</v>
+      </c>
+      <c r="B52" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2028-07-31</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>51</v>
+      </c>
+      <c r="B53" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2028-08-31</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>52</v>
+      </c>
+      <c r="B54" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2028-09-30</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>53</v>
+      </c>
+      <c r="B55" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2028-10-31</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>54</v>
+      </c>
+      <c r="B56" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2028-11-30</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>55</v>
+      </c>
+      <c r="B57" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2028-12-31</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
